--- a/Data/BTSignUp.xlsx
+++ b/Data/BTSignUp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisha\eclipse-workspace\bt-automation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisha\git\BetterThat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079001FE-2419-47B6-9716-2F83137E48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EE1881-ACBB-4609-B97F-B4DEF2E5B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{58DA6B23-1A88-4DE3-99A9-4AF228A389B7}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>jisha2@springdigital.com.au</t>
-  </si>
-  <si>
     <t>Jis</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Bt@2022</t>
+  </si>
+  <si>
+    <t>jishaSD2@springdigital.com.au</t>
   </si>
 </sst>
 </file>
@@ -422,12 +422,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
@@ -449,16 +449,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/BTSignUp.xlsx
+++ b/Data/BTSignUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisha\git\BetterThat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EE1881-ACBB-4609-B97F-B4DEF2E5B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B5DE99-A9BE-4069-89EE-C447C29A8650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{58DA6B23-1A88-4DE3-99A9-4AF228A389B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{58DA6B23-1A88-4DE3-99A9-4AF228A389B7}"/>
   </bookViews>
   <sheets>
     <sheet name="BTSingUp" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -422,7 +414,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
